--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iuliu\OneDrive\Desktop\GitHubRepos\VVSS---Project\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDA9D23-1DC3-4FC4-9715-731BE1DC64F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -129,9 +130,6 @@
   </si>
   <si>
     <t>Tool-based Code Analysis</t>
-  </si>
-  <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
   </si>
   <si>
     <t>Satmari Iulius</t>
@@ -259,12 +257,39 @@
   </si>
   <si>
     <t xml:space="preserve"> this.associatedParts = associatedParts;</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Search function</t>
+  </si>
+  <si>
+    <t>Functia de cautare implementata gresit</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Exista error handling dar nu sunt tratate corespunzator</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>Numele fisierului utilizat pentru citirea/scrierea datelor este hardcodatin interiorul unei clase</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours): 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,6 +502,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -518,9 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -616,6 +641,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -651,6 +693,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -826,14 +885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,19 +912,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -879,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="18">
         <v>236</v>
@@ -889,15 +948,15 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>236</v>
@@ -907,10 +966,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -922,15 +981,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -951,13 +1010,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -966,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -981,13 +1040,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -996,13 +1055,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1122,7 +1181,7 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1140,14 +1199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1214,7 @@
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
     <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="75.5546875" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="6"/>
@@ -1166,19 +1225,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1192,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="18">
         <v>236</v>
@@ -1202,15 +1261,15 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>236</v>
@@ -1220,10 +1279,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1235,15 +1294,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1263,27 +1322,45 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -1438,13 +1515,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1465,19 +1542,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1491,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="18">
         <v>236</v>
@@ -1501,15 +1578,15 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>236</v>
@@ -1519,10 +1596,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1534,15 +1611,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1563,11 +1640,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1576,11 +1653,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1589,11 +1666,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1602,11 +1679,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1615,11 +1692,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1793,14 +1870,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,19 +1898,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1847,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="18">
         <v>236</v>
@@ -1857,13 +1934,13 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>236</v>
@@ -1873,8 +1950,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1886,8 +1963,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1911,16 +1988,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1929,16 +2006,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1947,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1961,16 +2038,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1979,16 +2056,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1997,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2015,11 +2092,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -2029,16 +2106,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -2175,11 +2252,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="C32" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>
